--- a/data/trans_dic/P34A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P34A_R-Edad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.3824166814320527</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3651725844439587</v>
+        <v>0.3651725844439588</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.3371413766250727</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2141101642931575</v>
+        <v>0.2154109423587231</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1258251198026859</v>
+        <v>0.1225063748416926</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1543925531806796</v>
+        <v>0.1505276955410259</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09149196353757286</v>
+        <v>0.0882427555336333</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3792629480057143</v>
+        <v>0.3868579412591125</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2505188710836762</v>
+        <v>0.2515908414180176</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3341297581071058</v>
+        <v>0.3349727267455407</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3017104179229226</v>
+        <v>0.2917659760653127</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3079418665827262</v>
+        <v>0.309045470519382</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1979484646142301</v>
+        <v>0.1975655332168802</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2529931089310063</v>
+        <v>0.2522715636899326</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2044751273435755</v>
+        <v>0.1997419930738897</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2932226677935216</v>
+        <v>0.2985501471863579</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1911527153987342</v>
+        <v>0.1896473567749948</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2316170211228012</v>
+        <v>0.228207057667759</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2073212959808207</v>
+        <v>0.200278920094673</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4711658428331131</v>
+        <v>0.4723066562196569</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3368703245773585</v>
+        <v>0.3382845060455943</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.430906992219265</v>
+        <v>0.4276917679473328</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4449177756393567</v>
+        <v>0.4377628992390735</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3673584929107521</v>
+        <v>0.3671692488350926</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2529180083166348</v>
+        <v>0.254681676494378</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.317947885159247</v>
+        <v>0.3143613109833997</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2925688469695573</v>
+        <v>0.296244201514599</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.3168728879495163</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.3577932310825747</v>
+        <v>0.3577932310825746</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3258054391151284</v>
+        <v>0.3274250229851731</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1642013211900044</v>
+        <v>0.162642610475068</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2297573777529188</v>
+        <v>0.232819799546872</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.282639707259892</v>
+        <v>0.2798743942109161</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.406696932769925</v>
+        <v>0.4092256960525229</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2401606745090315</v>
+        <v>0.2456555608830777</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3335532810008929</v>
+        <v>0.3329964508452392</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3361984439867928</v>
+        <v>0.3366485066569344</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.374409385891086</v>
+        <v>0.3756556691664583</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.212258021606632</v>
+        <v>0.2135382275060918</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2909669631713507</v>
+        <v>0.2905379303120241</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3209850499565612</v>
+        <v>0.3246436470291303</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4029696810153124</v>
+        <v>0.4021663140430063</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2277609910291864</v>
+        <v>0.2246265631624668</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3049022712813954</v>
+        <v>0.3026250939529475</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3975225980362438</v>
+        <v>0.3884965272689091</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.488160107273276</v>
+        <v>0.4839155815441158</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3185343045681137</v>
+        <v>0.3199801318593646</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4104503533911096</v>
+        <v>0.4098553274895997</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4267689951855763</v>
+        <v>0.4283664909027519</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4291039415590089</v>
+        <v>0.4314194444557607</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2575368233976347</v>
+        <v>0.2585910761547416</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3462385669083295</v>
+        <v>0.3418723491116405</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3926481595535245</v>
+        <v>0.3981550104243725</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.3479788643910323</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3964014093212785</v>
+        <v>0.3964014093212787</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.444934919220359</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4032403380152793</v>
+        <v>0.4025926424629266</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2200111597553767</v>
+        <v>0.2147069296702636</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3170404212929713</v>
+        <v>0.3165463886108792</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3131452712180882</v>
+        <v>0.3132580888229761</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4060935344484243</v>
+        <v>0.409775863117103</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2493955962010251</v>
+        <v>0.2483647660254947</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3074481422612393</v>
+        <v>0.3107634786253666</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3630605272324618</v>
+        <v>0.3647571293421997</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4178842640244845</v>
+        <v>0.4170743057612893</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.24147559882693</v>
+        <v>0.2419991748751696</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3236943082368337</v>
+        <v>0.3230448519306803</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3496017161074234</v>
+        <v>0.3513915026884539</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4863547108217761</v>
+        <v>0.4831745859599835</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2885680214302812</v>
+        <v>0.284807433219853</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3901496249519216</v>
+        <v>0.3912520322693491</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3936279747492646</v>
+        <v>0.3971381118097376</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4835508059507249</v>
+        <v>0.484353404559792</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3176149868198359</v>
+        <v>0.320352651742167</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3833083567789179</v>
+        <v>0.3883089993867342</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4305937933320307</v>
+        <v>0.4291539602949106</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4711518710808802</v>
+        <v>0.4735701551234638</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2906734844988744</v>
+        <v>0.2898757510934432</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3790293256966362</v>
+        <v>0.3754980577327327</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4025026479849791</v>
+        <v>0.4019806932554824</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.3824586304985644</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3533250169462957</v>
+        <v>0.3533250169462958</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4510276786252266</v>
+        <v>0.4533607022510986</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2137135123685553</v>
+        <v>0.2142478671596429</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3424628093175313</v>
+        <v>0.3437629520202437</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3181992568547147</v>
+        <v>0.320094364404193</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3981917853482853</v>
+        <v>0.3934492697944338</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2500443365334815</v>
+        <v>0.2457582453408389</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3440111848138888</v>
+        <v>0.343850929908195</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3229193685168795</v>
+        <v>0.3238966509174128</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4346714999485597</v>
+        <v>0.4378649435304255</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2419189978695303</v>
+        <v>0.2398464947812787</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3548794099204092</v>
+        <v>0.3517944564868886</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3286755066821392</v>
+        <v>0.3294772429383163</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.542556129196532</v>
+        <v>0.5453811168671567</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2900992570604324</v>
+        <v>0.2897320680591306</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4241334300444479</v>
+        <v>0.4222553016965306</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3922324111930392</v>
+        <v>0.3957608215504639</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4864551873991801</v>
+        <v>0.4861166306967275</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3254050596523045</v>
+        <v>0.3240855020627055</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4212142533769432</v>
+        <v>0.4196269411947538</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3779297598125668</v>
+        <v>0.3791204025924441</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5012795869077146</v>
+        <v>0.5019820178012772</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2950018379416025</v>
+        <v>0.2913559445981817</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4074995428396616</v>
+        <v>0.4071307311652098</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3764460665348376</v>
+        <v>0.3758904930018221</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.3576958002464264</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3950055873043136</v>
+        <v>0.3950055873043137</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.4385363307611937</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4586571909156814</v>
+        <v>0.4581990877960944</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2084734743561397</v>
+        <v>0.2064287795888237</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3142297836714558</v>
+        <v>0.3120383608689211</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3589985376609161</v>
+        <v>0.3601881962070326</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3918462440956885</v>
+        <v>0.3860727546304611</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2150171922123505</v>
+        <v>0.2157413609493049</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.417838194631488</v>
+        <v>0.4051804338510355</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.344663007130712</v>
+        <v>0.3449646352622587</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4344378655075689</v>
+        <v>0.432811361889668</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2231469043785345</v>
+        <v>0.2225724811558556</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3781897719021444</v>
+        <v>0.3813918335786793</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3603549863684938</v>
+        <v>0.3589333674446226</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5566959975636321</v>
+        <v>0.5548919106400005</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2931522748739052</v>
+        <v>0.2924585576866784</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4023364346908708</v>
+        <v>0.4054516240050576</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4343974699847709</v>
+        <v>0.4332036047897031</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4896438300187191</v>
+        <v>0.4892432105675725</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2980270274563681</v>
+        <v>0.2999148993137861</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5071790185869469</v>
+        <v>0.5067622982630894</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.403520896025207</v>
+        <v>0.4062826172930857</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5087979501963003</v>
+        <v>0.5058860209895062</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.283958077356563</v>
+        <v>0.2837460955361199</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4452452515778299</v>
+        <v>0.447176692217437</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4088018557883613</v>
+        <v>0.4075631747930405</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.4601758268470054</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.3726818006846599</v>
+        <v>0.3726818006846598</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.437503659105538</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3294769041679769</v>
+        <v>0.3330427731524396</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1646436779488977</v>
+        <v>0.1704926596930437</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3279667709844641</v>
+        <v>0.3241110640284511</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2767888892440307</v>
+        <v>0.277330308591018</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4274897201720287</v>
+        <v>0.4326049539651626</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2762223451092257</v>
+        <v>0.2795540004755089</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.4085548104396421</v>
+        <v>0.4109925829355991</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3380499126831258</v>
+        <v>0.3396340882376219</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.4009747233390397</v>
+        <v>0.4024774649838073</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2400807132851652</v>
+        <v>0.2406654312894987</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.3781268851984421</v>
+        <v>0.3858204109978163</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3172202544859335</v>
+        <v>0.3163677671001649</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4483554261184504</v>
+        <v>0.4435266702245985</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.266873601012517</v>
+        <v>0.2672595561440833</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.429997959749384</v>
+        <v>0.4347062239887155</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3550017587206932</v>
+        <v>0.3553886483643857</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5336465442993226</v>
+        <v>0.5291435878358738</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3790890039053422</v>
+        <v>0.3825088020538838</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5143971949579313</v>
+        <v>0.5103133109228313</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4057270600166242</v>
+        <v>0.4043319094968001</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4748925617227878</v>
+        <v>0.4746266583633185</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3119329528642766</v>
+        <v>0.3120530617717807</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4599795733027105</v>
+        <v>0.4570054619773319</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3683955135695774</v>
+        <v>0.3675893152406904</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4244055566950095</v>
+        <v>0.4238747999993163</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.223976706601036</v>
+        <v>0.2208234172587119</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.455490355553854</v>
+        <v>0.4548934868077257</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3671927278134919</v>
+        <v>0.364755053869633</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5544256662719357</v>
+        <v>0.5523857572583286</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4577401322058773</v>
+        <v>0.4598510015222645</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.6308377772015422</v>
+        <v>0.6269900793738424</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5990671807843359</v>
+        <v>0.6004970668697115</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.5206747626211552</v>
+        <v>0.523086508515505</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.3786934067380998</v>
+        <v>0.3731799320482916</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.5806638710493752</v>
+        <v>0.5775105883274959</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.5147442895464514</v>
+        <v>0.5153439662109174</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5592123329713782</v>
+        <v>0.5590177546186303</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3476249935234406</v>
+        <v>0.3373752197843776</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5629035187995388</v>
+        <v>0.5691532059186899</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4602865220536329</v>
+        <v>0.4589726804382677</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6612400622322573</v>
+        <v>0.6691611761188164</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.5603125919738826</v>
+        <v>0.5691538889646061</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7327586294481824</v>
+        <v>0.7347802449282417</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6656375801755319</v>
+        <v>0.6660232138173152</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.604503098385889</v>
+        <v>0.6120634539862445</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.4614734414368155</v>
+        <v>0.4582090698841122</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.6555835600031329</v>
+        <v>0.6562555130262144</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.5708368699631128</v>
+        <v>0.5727287000212149</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.4272393023573018</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.4049428888714752</v>
+        <v>0.4049428888714753</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.4363433802622917</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3923809561173278</v>
+        <v>0.3936060048574851</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2107835588097481</v>
+        <v>0.2087335794035335</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3215950534006219</v>
+        <v>0.3206081735745137</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.3162332975722714</v>
+        <v>0.3148094927891202</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.4426627167553541</v>
+        <v>0.4444447820239393</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2941432922116361</v>
+        <v>0.2943584660673423</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.4107592739346166</v>
+        <v>0.410339723347931</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3916369186741544</v>
+        <v>0.3899910055452638</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.4245688393630899</v>
+        <v>0.4245167822260319</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2562321568058876</v>
+        <v>0.2567925325237297</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.3707413547908247</v>
+        <v>0.3718364302780425</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.3588824837130749</v>
+        <v>0.3590656153863635</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4283818665055228</v>
+        <v>0.427326219942221</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2391734075614731</v>
+        <v>0.2399099270594574</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3535183184946157</v>
+        <v>0.353523931978083</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.352337987108798</v>
+        <v>0.3509975941629788</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.477878378661411</v>
+        <v>0.4792810034845691</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3260448439393452</v>
+        <v>0.3272488815805965</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.4444092013992952</v>
+        <v>0.444241410252863</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.4201473400238085</v>
+        <v>0.4181851399655879</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.4480548335314721</v>
+        <v>0.4496054819986829</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2785462774599574</v>
+        <v>0.2796458947591188</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3953118743132139</v>
+        <v>0.3958876472687944</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.3817090729197802</v>
+        <v>0.3826137442505274</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>104426</v>
+        <v>105060</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>57143</v>
+        <v>55636</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>64762</v>
+        <v>63141</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>37310</v>
+        <v>35985</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>173725</v>
+        <v>177204</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>107781</v>
+        <v>108242</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>132234</v>
+        <v>132567</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>109374</v>
+        <v>105769</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>291245</v>
+        <v>292288</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>175061</v>
+        <v>174722</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>206245</v>
+        <v>205656</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>157508</v>
+        <v>153862</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>143010</v>
+        <v>145609</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>86811</v>
+        <v>86128</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>97155</v>
+        <v>95724</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>84544</v>
+        <v>81672</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>215822</v>
+        <v>216344</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>144932</v>
+        <v>145540</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>170534</v>
+        <v>169261</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>161288</v>
+        <v>158694</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>347440</v>
+        <v>347261</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>223675</v>
+        <v>225234</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>259197</v>
+        <v>256273</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>225367</v>
+        <v>228198</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>234762</v>
+        <v>235929</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>112532</v>
+        <v>111464</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>135671</v>
+        <v>137479</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>134419</v>
+        <v>133104</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>250241</v>
+        <v>251797</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>146559</v>
+        <v>149913</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>187972</v>
+        <v>187658</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>168463</v>
+        <v>168689</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>500159</v>
+        <v>501823</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>274998</v>
+        <v>276657</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>335788</v>
+        <v>335292</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>313496</v>
+        <v>317069</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>290363</v>
+        <v>289785</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>156091</v>
+        <v>153943</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>180044</v>
+        <v>178699</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>189056</v>
+        <v>184763</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>300366</v>
+        <v>297754</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>194387</v>
+        <v>195269</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>231307</v>
+        <v>230972</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>213847</v>
+        <v>214647</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>573223</v>
+        <v>576316</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>333661</v>
+        <v>335027</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>399573</v>
+        <v>394534</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>383487</v>
+        <v>388866</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>254702</v>
+        <v>254293</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>150017</v>
+        <v>146401</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>212131</v>
+        <v>211800</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>193609</v>
+        <v>193679</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>274090</v>
+        <v>276575</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>177283</v>
+        <v>176550</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>203342</v>
+        <v>205535</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>225050</v>
+        <v>226101</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>545999</v>
+        <v>544941</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>336306</v>
+        <v>337035</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>430670</v>
+        <v>429806</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>432856</v>
+        <v>435072</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>307200</v>
+        <v>305191</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>196764</v>
+        <v>194200</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>261048</v>
+        <v>261786</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>243370</v>
+        <v>245540</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>326369</v>
+        <v>326910</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>225777</v>
+        <v>227723</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>253515</v>
+        <v>256822</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>266911</v>
+        <v>266019</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>615598</v>
+        <v>618757</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>404824</v>
+        <v>403713</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>504292</v>
+        <v>499594</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>498355</v>
+        <v>497708</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>232145</v>
+        <v>233346</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>131352</v>
+        <v>131680</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>221247</v>
+        <v>222087</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>222577</v>
+        <v>223902</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>200722</v>
+        <v>198331</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>154077</v>
+        <v>151436</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>223290</v>
+        <v>223186</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>237703</v>
+        <v>238423</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>442837</v>
+        <v>446091</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>297758</v>
+        <v>295207</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>459613</v>
+        <v>455618</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>471845</v>
+        <v>472996</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>279255</v>
+        <v>280709</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>178300</v>
+        <v>178074</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>274011</v>
+        <v>272797</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>274362</v>
+        <v>276830</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>245214</v>
+        <v>245044</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>200514</v>
+        <v>199701</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>273400</v>
+        <v>272370</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>278197</v>
+        <v>279073</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>510697</v>
+        <v>511412</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>363093</v>
+        <v>358606</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>527763</v>
+        <v>527285</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>540424</v>
+        <v>539627</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>173826</v>
+        <v>173652</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>89525</v>
+        <v>88647</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>150176</v>
+        <v>149129</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>218075</v>
+        <v>218797</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>156661</v>
+        <v>154353</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>96285</v>
+        <v>96609</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>207602</v>
+        <v>201313</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>208622</v>
+        <v>208805</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>338336</v>
+        <v>337069</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>195751</v>
+        <v>195247</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>368647</v>
+        <v>371768</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>437019</v>
+        <v>435295</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>210981</v>
+        <v>210297</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>125888</v>
+        <v>125590</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>192284</v>
+        <v>193773</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>263876</v>
+        <v>263151</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>195761</v>
+        <v>195600</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>133457</v>
+        <v>134302</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>251991</v>
+        <v>251784</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>244249</v>
+        <v>245920</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>396247</v>
+        <v>393979</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>249096</v>
+        <v>248910</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>434010</v>
+        <v>435893</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>495773</v>
+        <v>494271</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>95255</v>
+        <v>96286</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>51004</v>
+        <v>52816</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>109649</v>
+        <v>108360</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>112384</v>
+        <v>112604</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>144726</v>
+        <v>146458</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>97782</v>
+        <v>98961</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>154336</v>
+        <v>155257</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>148258</v>
+        <v>148953</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>251675</v>
+        <v>252618</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>159361</v>
+        <v>159749</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>269261</v>
+        <v>274740</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>267923</v>
+        <v>267203</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>129624</v>
+        <v>128228</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>82674</v>
+        <v>82793</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>143761</v>
+        <v>145335</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>144140</v>
+        <v>144297</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>180665</v>
+        <v>179141</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>134196</v>
+        <v>135407</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>194320</v>
+        <v>192777</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>177939</v>
+        <v>177327</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>298070</v>
+        <v>297903</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>207055</v>
+        <v>207135</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>327548</v>
+        <v>325430</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>311145</v>
+        <v>310464</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>88637</v>
+        <v>88526</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>55961</v>
+        <v>55173</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>117060</v>
+        <v>116907</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>113159</v>
+        <v>112408</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>181864</v>
+        <v>181195</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>177549</v>
+        <v>178367</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>252442</v>
+        <v>250902</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>277128</v>
+        <v>277790</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>279535</v>
+        <v>280829</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>241505</v>
+        <v>237989</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>381593</v>
+        <v>379521</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>396752</v>
+        <v>397214</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>116791</v>
+        <v>116750</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>86854</v>
+        <v>84294</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>144665</v>
+        <v>146271</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>141848</v>
+        <v>141443</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>216901</v>
+        <v>219500</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>217335</v>
+        <v>220764</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>293227</v>
+        <v>294036</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>307924</v>
+        <v>308102</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>324540</v>
+        <v>328599</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>294296</v>
+        <v>292215</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>430828</v>
+        <v>431269</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>439986</v>
+        <v>441444</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1268004</v>
+        <v>1271963</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>721938</v>
+        <v>714917</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1091606</v>
+        <v>1088256</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1114025</v>
+        <v>1109009</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1469091</v>
+        <v>1475005</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1046330</v>
+        <v>1047095</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1455953</v>
+        <v>1454466</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1459251</v>
+        <v>1453119</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>2781063</v>
+        <v>2780722</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1789072</v>
+        <v>1792985</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>2572534</v>
+        <v>2580133</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>2601476</v>
+        <v>2602804</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1384343</v>
+        <v>1380932</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>819174</v>
+        <v>821697</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1199965</v>
+        <v>1199984</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>1241214</v>
+        <v>1236492</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>1585963</v>
+        <v>1590618</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1159810</v>
+        <v>1164093</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1575227</v>
+        <v>1574632</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>1565482</v>
+        <v>1558171</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>2934903</v>
+        <v>2945061</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1944875</v>
+        <v>1952553</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>2743026</v>
+        <v>2747022</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>2766942</v>
+        <v>2773500</v>
       </c>
     </row>
     <row r="36">
